--- a/biology/Zoologie/Ditylus/Ditylus.xlsx
+++ b/biology/Zoologie/Ditylus/Ditylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ditylus est un genre d'insectes coléoptères aussi dit « faux coléoptères » de la sous-famille des Oedemerinae (famille des Oedemeridae)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ditylus est un genre d'insectes coléoptères aussi dit « faux coléoptères » de la sous-famille des Oedemerinae (famille des Oedemeridae).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ditylus est décrit par Gotthelf Fischer von Waldheim en 1817[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ditylus est décrit par Gotthelf Fischer von Waldheim en 1817,.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a au moins quatre espèces décrites dans Ditylus[3],[4],[5],[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a au moins quatre espèces décrites dans Ditylus.
 Ces quatre espèces appartiennent au genre Ditylus :
 Ditylus caeruleus (Randall, 1838) i c g b
 Ditylus gracilis LeConte, 1854i c g b
 Ditylus laevis (Fabricius, 1787)g
 Ditylus quadricollis (LeConte, 1851)i c g b
-Sources de données : i = ITIS[3], c = Catalog of Life[4], g = GBIF[5], b = Bugguide.net[6][3],[7],[4],[5],[6]
+Sources de données : i = ITIS, c = Catalog of Life, g = GBIF, b = Bugguide.net
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Espèce fossile</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, une seule espèce est référencée comme fossile[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, une seule espèce est référencée comme fossile :
 †Ditylus lienharti Théobald, 1937</t>
         </is>
       </c>
